--- a/data.xlsx
+++ b/data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,9 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
-    <t>n1</t>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>YV</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>k=</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Power Low</t>
+  </si>
+  <si>
+    <t>Herschel-Bulkley</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Herschel-Bulkley 2</t>
   </si>
 </sst>
 </file>
@@ -45,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -53,12 +81,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -91,7 +218,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29001377952755908"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -123,7 +257,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6469816272965882E-2"/>
+          <c:y val="0.13930555555555557"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -156,10 +300,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Аркуш1!$B$2:$B$9</c:f>
+              <c:f>Аркуш1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>600</c:v>
                 </c:pt>
@@ -173,15 +317,9 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -189,10 +327,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Аркуш1!$C$2:$C$9</c:f>
+              <c:f>Аркуш1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -206,15 +344,9 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
@@ -306,7 +438,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -410,7 +541,460 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9924347691832645E-2"/>
+          <c:y val="0.15675464320625612"/>
+          <c:w val="0.88076192681797127"/>
+          <c:h val="0.76426874793143529"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F239-4E51-B96D-ED99473B150C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="100"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$6:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$6:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F239-4E51-B96D-ED99473B150C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2068433104"/>
+        <c:axId val="2068428944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2068433104"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2068428944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2068428944"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2068433104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -966,20 +1550,685 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563937</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905001" y="2516177"/>
+          <a:ext cx="1097336" cy="398474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6148</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2533650"/>
+          <a:ext cx="1225348" cy="400114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724276" y="2654977"/>
+          <a:ext cx="1733549" cy="431187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1264,110 +2513,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>600</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>C2-C3</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>(C3-F2)*0.48</f>
+        <v>29.759999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <f>3.32*LOG10(C2/C3)</f>
+        <v>0.30382973732288276</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <f>3.32*LOG10((C2-E16)/(E16))</f>
+        <v>0.23119128142942966</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10">
+        <f>3.32*LOG10((2*F2+F3-E16)/(F2+F3-E16))</f>
+        <v>2.9772093657502698</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7">
+        <f>2*C7-C6</f>
+        <v>46</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7">
+        <f>0.657*LOG10(C5/C7)</f>
+        <v>7.9033047336586407E-2</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="11">
+        <f>3.32*LOG10((2*F2+F3)/(F2+F3))</f>
+        <v>0.47446020524933641</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f>3.32*LOG10(2*F2+F3)/(F2+F3)</f>
+        <v>0.12466841015404428</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>600</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>C2-C3</f>
+        <v>10.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>300</v>
       </c>
       <c r="C3">
-        <v>81</v>
+        <v>19.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>(C3-F2)*0.48</f>
+        <v>4.32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>7.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>48</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f>3.32*LOG10(C2/C3)</f>
+        <v>0.6211276559457195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f>2*C7-C6</f>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>47</v>
+      <c r="B14">
+        <f>C3/511^B13</f>
+        <v>0.40528402571652067</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f>3.32*LOG10((C2-E13)/(E13))</f>
+        <v>1.7970533128396391</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <f>3.32*LOG10(C14/C15)</f>
-        <v>0.99941958560441757</v>
-      </c>
-      <c r="C11">
-        <f>1-B11</f>
-        <v>5.8041439558242924E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>5.0999999999999996</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f>0.657*LOG10(C5/C7)</f>
+        <v>0.17663137017622504</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>